--- a/Income/AMGN_inc.xlsx
+++ b/Income/AMGN_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.756</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.7654</v>
+        <v>0.7658</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7809</v>
+        <v>0.7813</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7984</v>
+        <v>0.7987</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.8132</v>
+        <v>0.8135</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.8205</v>
@@ -2235,16 +2235,16 @@
         <v>0.362</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.3703</v>
+        <v>0.3697</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3811</v>
+        <v>0.3805</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.4002</v>
+        <v>0.3996</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4148</v>
+        <v>0.4141</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4278</v>
@@ -2362,16 +2362,16 @@
         <v>0.3222</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.3324</v>
+        <v>0.3318</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.3442</v>
+        <v>0.3436</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.3704</v>
+        <v>0.3698</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.3918</v>
+        <v>0.3911</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.3992</v>
@@ -2489,16 +2489,16 @@
         <v>0.2877</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2966</v>
+        <v>0.2961</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.3023</v>
+        <v>0.3018</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3214</v>
+        <v>0.3209</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.3362</v>
+        <v>0.3357</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.3448</v>
@@ -2616,16 +2616,16 @@
         <v>0.3917</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.4129</v>
+        <v>0.4122</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.4228</v>
+        <v>0.4221</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.3683</v>
+        <v>0.3677</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.3658</v>
+        <v>0.3652</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.3922</v>
@@ -3632,16 +3632,16 @@
         <v>0.4976</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.5007</v>
+        <v>0.5015</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.5004</v>
+        <v>0.5012</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.5058</v>
+        <v>0.5066</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.5077</v>
+        <v>0.5085</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.513</v>
@@ -3759,16 +3759,16 @@
         <v>0.4158</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.438</v>
+        <v>0.4373</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.4501</v>
+        <v>0.4493</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.3953</v>
+        <v>0.3947</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.3923</v>
+        <v>0.3917</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.4202</v>
